--- a/lib/PHPExcel/templates/Report OVL.xlsx
+++ b/lib/PHPExcel/templates/Report OVL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GPM\www\GPM\lib\PHPExcel\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E85E9E4F-00CD-458A-B6F8-0417A2D596D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OVL" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="_xlnm.Database">OVL!#REF!</definedName>
     <definedName name="_xlnm.Data_Form">OVL!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">OVL!$B:$C,OVL!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OVL!$A$1:$L$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OVL!$A$1:$L$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -85,11 +86,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00_)"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -396,7 +397,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -441,7 +442,7 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,7 +487,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -890,13 +891,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:CY25"/>
+  <dimension ref="A1:CY28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C27" sqref="C27"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1147,19 +1148,19 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29" t="str">
-        <f>IF(L18="","",(ABS(L17-L18)/E8))</f>
+        <f>IF(L18="","",(ABS(L17-L18)/E5))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -1185,161 +1186,214 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:103" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34" t="str">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29" t="str">
         <f>IF(L21="","",(ABS(L20-L21)/E8))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:103" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:103" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34" t="str">
+        <f>IF(L24="","",(ABS(L23-L24)/E8))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:103" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-    </row>
-    <row r="24" spans="1:103" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="1:103" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-    </row>
-    <row r="25" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
-      <c r="BA25" s="5"/>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="5"/>
-      <c r="BF25" s="5"/>
-      <c r="BG25" s="5"/>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="5"/>
-      <c r="BJ25" s="5"/>
-      <c r="BK25" s="5"/>
-      <c r="BL25" s="5"/>
-      <c r="BM25" s="5"/>
-      <c r="BN25" s="5"/>
-      <c r="BO25" s="5"/>
-      <c r="BP25" s="5"/>
-      <c r="BQ25" s="5"/>
-      <c r="BR25" s="5"/>
-      <c r="BS25" s="5"/>
-      <c r="BT25" s="5"/>
-      <c r="BU25" s="5"/>
-      <c r="BV25" s="5"/>
-      <c r="BW25" s="5"/>
-      <c r="BX25" s="5"/>
-      <c r="BY25" s="5"/>
-      <c r="BZ25" s="5"/>
-      <c r="CA25" s="5"/>
-      <c r="CB25" s="5"/>
-      <c r="CC25" s="5"/>
-      <c r="CD25" s="5"/>
-      <c r="CE25" s="5"/>
-      <c r="CF25" s="5"/>
-      <c r="CG25" s="5"/>
-      <c r="CH25" s="5"/>
-      <c r="CI25" s="5"/>
-      <c r="CJ25" s="5"/>
-      <c r="CK25" s="5"/>
-      <c r="CL25" s="5"/>
-      <c r="CM25" s="5"/>
-      <c r="CN25" s="5"/>
-      <c r="CO25" s="5"/>
-      <c r="CP25" s="5"/>
-      <c r="CQ25" s="5"/>
-      <c r="CR25" s="5"/>
-      <c r="CS25" s="5"/>
-      <c r="CT25" s="5"/>
-      <c r="CU25" s="5"/>
-      <c r="CV25" s="5"/>
-      <c r="CW25" s="5"/>
-      <c r="CX25" s="5"/>
-      <c r="CY25" s="5"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
+      <c r="BK28" s="5"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="5"/>
+      <c r="BN28" s="5"/>
+      <c r="BO28" s="5"/>
+      <c r="BP28" s="5"/>
+      <c r="BQ28" s="5"/>
+      <c r="BR28" s="5"/>
+      <c r="BS28" s="5"/>
+      <c r="BT28" s="5"/>
+      <c r="BU28" s="5"/>
+      <c r="BV28" s="5"/>
+      <c r="BW28" s="5"/>
+      <c r="BX28" s="5"/>
+      <c r="BY28" s="5"/>
+      <c r="BZ28" s="5"/>
+      <c r="CA28" s="5"/>
+      <c r="CB28" s="5"/>
+      <c r="CC28" s="5"/>
+      <c r="CD28" s="5"/>
+      <c r="CE28" s="5"/>
+      <c r="CF28" s="5"/>
+      <c r="CG28" s="5"/>
+      <c r="CH28" s="5"/>
+      <c r="CI28" s="5"/>
+      <c r="CJ28" s="5"/>
+      <c r="CK28" s="5"/>
+      <c r="CL28" s="5"/>
+      <c r="CM28" s="5"/>
+      <c r="CN28" s="5"/>
+      <c r="CO28" s="5"/>
+      <c r="CP28" s="5"/>
+      <c r="CQ28" s="5"/>
+      <c r="CR28" s="5"/>
+      <c r="CS28" s="5"/>
+      <c r="CT28" s="5"/>
+      <c r="CU28" s="5"/>
+      <c r="CV28" s="5"/>
+      <c r="CW28" s="5"/>
+      <c r="CX28" s="5"/>
+      <c r="CY28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,6 +1410,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -1531,20 +1594,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
@@ -1554,7 +1604,19 @@
 </p:properties>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1573,23 +1635,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1604,4 +1650,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>